--- a/MISIS math Analysis/4/Анализ данных/ПР1/ПР_№1_учебная выборка (ПЗ-2).xlsx
+++ b/MISIS math Analysis/4/Анализ данных/ПР1/ПР_№1_учебная выборка (ПЗ-2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_repos\University_courses\Further-Mathematics-exercises\MISIS math Analysis\4\Анализ данных\ПР1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB2ABF-58ED-402B-8FD3-A33C4852B590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72D9B28-F918-4A39-9B90-5DE2CBDA69E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -291,6 +291,8 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,7 +308,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +339,12 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -365,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +385,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,15 +695,15 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +929,7 @@
       <c r="B17" s="2">
         <v>35676.631379480743</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="2">
